--- a/doc/log/杨利光.xlsx
+++ b/doc/log/杨利光.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\光哥\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Python\guard\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2088D5-4437-4F37-BA8B-FAF09E994847}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52F347B-BA48-4271-A170-8B9321F1BF82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>日期</t>
   </si>
@@ -53,6 +53,34 @@
   </si>
   <si>
     <t>初步了解文本分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午8：00-11：50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:10-21:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午14:10-18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续了解NLP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续了解文本分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解NLP的几个模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +170,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,7 +516,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -538,22 +569,42 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="5">
+        <v>43661</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>

--- a/doc/log/杨利光.xlsx
+++ b/doc/log/杨利光.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Python\guard\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52F347B-BA48-4271-A170-8B9321F1BF82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B513A9-8870-40D9-BC86-AB30677F41C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>日期</t>
   </si>
@@ -82,13 +82,24 @@
   <si>
     <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《数学之美》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《数学之美》了解统计语言模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《数学之美》了解统计语言模型中文分词，</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +123,24 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -156,7 +185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,6 +202,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -570,7 +605,7 @@
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>43661</v>
+        <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -607,22 +642,42 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="5">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>

--- a/doc/log/杨利光.xlsx
+++ b/doc/log/杨利光.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Python\guard\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B513A9-8870-40D9-BC86-AB30677F41C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E276754C-E02B-429B-9E75-BFB2C81AD2F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>日期</t>
   </si>
@@ -93,13 +93,25 @@
   </si>
   <si>
     <t>看《数学之美》了解统计语言模型中文分词，</t>
+  </si>
+  <si>
+    <t>看《数学之美》了解隐含马尔可夫模型，布尔代数，图论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简要了解机器学习，深度学习，BP算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看周志华《深度学习》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +159,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,6 +229,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,15 +574,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.26953125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -643,7 +667,7 @@
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>43663</v>
+        <v>43664</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -680,22 +704,42 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="5">
+        <v>43664</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>

--- a/doc/log/杨利光.xlsx
+++ b/doc/log/杨利光.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Python\guard\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E276754C-E02B-429B-9E75-BFB2C81AD2F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -110,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -294,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,27 +320,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,24 +354,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,23 +529,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1">
       <c r="A2" s="4">
         <v>43661</v>
       </c>
@@ -615,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="33" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -627,7 +585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42" customHeight="1">
       <c r="A4" s="5">
         <v>43662</v>
       </c>
@@ -641,7 +599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -653,7 +611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -665,9 +623,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="42" customHeight="1">
       <c r="A7" s="5">
-        <v>43664</v>
+        <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -679,7 +637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="42" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -691,7 +649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -703,7 +661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42" customHeight="1">
       <c r="A10" s="5">
         <v>43664</v>
       </c>
@@ -717,7 +675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -729,7 +687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -741,139 +699,139 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="42" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="42" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="42" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="42" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="42" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="42" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="42" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="42" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="42" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="42" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="42" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="42" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="42" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="42" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="42" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -887,12 +845,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -901,12 +859,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/杨利光.xlsx
+++ b/doc/log/杨利光.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Python\github\guard\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C235DC3-2F0C-436F-952C-FEE207462A0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="7510" yWindow="680" windowWidth="11410" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>日期</t>
   </si>
@@ -98,14 +104,26 @@
   </si>
   <si>
     <t>看周志华《深度学习》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解学习Python的Flask前端框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《数学之美》了解有限状态机，动态规划，余弦定理与新闻分类。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习Flask前端框架</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +264,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -288,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,9 +338,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,6 +390,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,23 +583,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1">
+    <row r="1" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43661</v>
       </c>
@@ -573,7 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1">
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -585,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43662</v>
       </c>
@@ -599,7 +653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -611,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -623,7 +677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43663</v>
       </c>
@@ -637,7 +691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1">
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -649,7 +703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1">
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -661,7 +715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43664</v>
       </c>
@@ -675,7 +729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -687,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -699,139 +753,159 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1">
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -845,12 +919,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -859,12 +933,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/杨利光.xlsx
+++ b/doc/log/杨利光.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Python\github\guard\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C235DC3-2F0C-436F-952C-FEE207462A0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF0D9B-27E0-49E0-8F54-BB7E44C648B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7510" yWindow="680" windowWidth="11410" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>继续学习Flask前端框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装node.js,开始学习VUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kan《数学之美》，了解搜索引擎反作弊，奇异值分解，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习VUE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -586,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -792,22 +804,42 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="5">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>

--- a/doc/log/杨利光.xlsx
+++ b/doc/log/杨利光.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Python\github\guard\doc\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\光哥\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF0D9B-27E0-49E0-8F54-BB7E44C648B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E0E203-AFEB-4177-92F9-9E0D1E2387EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>日期</t>
   </si>
@@ -119,15 +119,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>安装node.js,开始学习VUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kan《数学之美》，了解搜索引擎反作弊，奇异值分解，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>继续学习VUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体开例会，学长讲了一下前端界面设计，刘老师帮我们解答问题，确定下一步学习路线和方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习VUE框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Vue，实现一个简单的Vue项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Vue，组件及其嵌套，属性传值，事件传值路由及请求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试利用Vue实现NLP前端页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -598,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -805,13 +821,13 @@
     </row>
     <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>43666</v>
+        <v>43668</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
@@ -823,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>15</v>
@@ -835,29 +851,49 @@
         <v>5</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="5">
+        <v>43669</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>

--- a/doc/log/杨利光.xlsx
+++ b/doc/log/杨利光.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\光哥\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Python\github\guard\guard\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E0E203-AFEB-4177-92F9-9E0D1E2387EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A3D619-E4C0-4C3F-9C0B-5E96757B7B4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4310" yWindow="470" windowWidth="14890" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>日期</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现基本前端页面框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化，美化，前端页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为实现前后端连接做准备准备</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -614,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -896,22 +908,42 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="5">
+        <v>43670</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>

--- a/doc/log/杨利光.xlsx
+++ b/doc/log/杨利光.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Python\github\guard\guard\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A3D619-E4C0-4C3F-9C0B-5E96757B7B4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB02C87A-BBFC-4797-923E-3C81333835B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4310" yWindow="470" windowWidth="14890" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14890" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="5">
+        <v>43670</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>

--- a/doc/log/杨利光.xlsx
+++ b/doc/log/杨利光.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Python\github\guard\guard\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB02C87A-BBFC-4797-923E-3C81333835B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233BE5DE-09CE-4F3A-8B43-01902D4C261B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14890" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>日期</t>
   </si>
@@ -156,6 +156,72 @@
   </si>
   <si>
     <t>为实现前后端连接做准备准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午8：00-11：50</t>
+  </si>
+  <si>
+    <t>全体开例会，总结前两周工作，为接下来学习任务做计划，</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>下午14:10-18:00</t>
+  </si>
+  <si>
+    <t>开始学习PyTorch,继续了解TF-IDF,</t>
+  </si>
+  <si>
+    <t>晚上19:10-21:30</t>
+  </si>
+  <si>
+    <t>继续学习PyTorch</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始学习SpingBoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">看《数学之美》了解维特比算法，文本分类—最大期望值算法
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习SpingBoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习SpringBoot，实现SpringBootDEMO。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上优化文本分类前端显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新研究《数学之美》中的隐含马尔可夫模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合项目前后端，发布到gitlab；开始了解并学习PyTorch。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始了解并学习PyTorch。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习PyTorch。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 全体开例会，总结前两周工作，为接下来学习任务做计划</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +351,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -947,71 +1016,193 @@
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>43670</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+        <v>43671</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="5">
+        <v>43672</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="5">
+        <v>43673</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="5">
+        <v>43674</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>43675</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
